--- a/traces/Visualizations/classTimesWithGraph.xlsx
+++ b/traces/Visualizations/classTimesWithGraph.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="classTimes" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classTimes!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ExecutionTime</t>
   </si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>org.apache.commons.net.ftp.parser.CompositeFileEntryParser</t>
-  </si>
-  <si>
-    <t>org.apache.commons.net.ftp.TestConnectTimeout</t>
   </si>
 </sst>
 </file>
@@ -772,102 +772,99 @@
             <c:strRef>
               <c:f>classTimes!$B$2:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>org.apache.commons.net.ftp.FTPFileFilters$2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>org.apache.commons.net.ftp.parser.RegexFTPFileEntryParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>org.apache.commons.net.ftp.FTPFile</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>org.apache.commons.net.util.ListenerList</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>org.apache.commons.net.ftp.FTPCmd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>org.apache.commons.net.ftp.FTPReply</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>org.apache.commons.net.util.Charsets</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>org.apache.commons.net.ftp.FTPClientTest$LocalClient</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>org.apache.commons.net.io.Util</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>org.apache.commons.net.ftp.FTPCommand</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>org.apache.commons.net.ftp.FTPClientConfig</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>org.apache.commons.net.ftp.parser.VMSVersioningFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>org.apache.commons.net.ftp.parser.FTPTimestampParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>org.apache.commons.net.ftp.parser.UnixFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>org.apache.commons.net.ftp.parser.ConfigurableFTPFileEntryParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>org.apache.commons.net.ftp.parser.NTFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>org.apache.commons.net.ProtocolCommandSupport</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>org.apache.commons.net.ftp.FTPClient</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>org.apache.commons.net.ftp.FTPClientTest</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>org.apache.commons.net.ftp.FTPClientConfigFunctionalTest</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>org.apache.commons.net.ftp.ListingFunctionalTest</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>org.apache.commons.net.ftp.parser.CompositeFileEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>org.apache.commons.net.ftp.FTPListParseEngine</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>org.apache.commons.net.ftp.FTPFileEntryParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>org.apache.commons.net.ftp.FTP</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>org.apache.commons.net.ftp.FTPClientConfigTest</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>org.apache.commons.net.ftp.parser.DefaultFTPFileEntryParserFactory</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>org.apache.commons.net.ftp.FTPCommandTest</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>org.apache.commons.net.SocketClient</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>org.apache.commons.net.ftp.FTPClient</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>org.apache.commons.net.ftp.FTPClientConfig</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>org.apache.commons.net.ftp.FTP</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="29">
+                  <c:v>org.apache.commons.net.ftp.parser.VMSFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>org.apache.commons.net.io.CRLFLineReader</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>org.apache.commons.net.util.ListenerList</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>org.apache.commons.net.ProtocolCommandSupport</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>org.apache.commons.net.ftp.FTPReply</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>org.apache.commons.net.ftp.FTPCmd</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>org.apache.commons.net.ftp.FTPClientConfigFunctionalTest</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>org.apache.commons.net.ftp.parser.RegexFTPFileEntryParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>org.apache.commons.net.ftp.parser.FTPTimestampParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>org.apache.commons.net.ftp.parser.UnixFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>org.apache.commons.net.ftp.parser.ConfigurableFTPFileEntryParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>org.apache.commons.net.ftp.parser.DefaultFTPFileEntryParserFactory</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>org.apache.commons.net.util.Charsets</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>org.apache.commons.net.ftp.FTPFileEntryParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>org.apache.commons.net.ftp.FTPListParseEngine</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>org.apache.commons.net.io.Util</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>org.apache.commons.net.ftp.FTPFile</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>org.apache.commons.net.ftp.FTPFileFilters$2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>org.apache.commons.net.ftp.FTPClientConfigTest</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>org.apache.commons.net.ftp.FTPClientTest</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>org.apache.commons.net.ftp.parser.VMSFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>org.apache.commons.net.ftp.FTPClientTest$LocalClient</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>org.apache.commons.net.ftp.FTPCommand</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>org.apache.commons.net.ftp.FTPCommandTest</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>org.apache.commons.net.ftp.ListingFunctionalTest</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>org.apache.commons.net.ftp.parser.VMSVersioningFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>org.apache.commons.net.ftp.parser.NTFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>org.apache.commons.net.ftp.parser.CompositeFileEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>org.apache.commons.net.ftp.TestConnectTimeout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -879,100 +876,97 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>506.98944591028999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1767.8008067226799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1939.96586699765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2387.2669039145899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279.6652892561897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4843.8656250000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6614.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7208.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7420.6785714285697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9643</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14360.1138545953</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50472.518072289102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108625.821264689</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118866.838649155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>382508.186086956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>428885</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>556110.53736654797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>584323.82359550497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>598574.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>750538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>806244.62162162096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>836837.84615384601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>935030.25531914795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>999431.90327237698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1110376.8536259001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1243371.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1332061.3611111101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2639485</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2684397.8699186901</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>584323.82359550497</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14360.1138545953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1110376.8536259001</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="29">
+                  <c:v>3269669.2102425802</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>72759744.165217295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2387.2669039145899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>556110.53736654797</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4843.8656250000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4279.6652892561897</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>750538</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1767.8008067226799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>108625.821264689</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>118866.838649155</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>382508.186086956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1332061.3611111101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6614.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>999431.90327237698</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>935030.25531914795</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7420.6785714285697</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1939.96586699765</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>506.98944591028999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1243371.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>598574.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3269669.2102425802</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7208.3333333333303</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9643</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2639485</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>806244.62162162096</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50472.518072289102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>428885</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>836837.84615384601</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1006513965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,11 +982,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="231974632"/>
-        <c:axId val="231969536"/>
+        <c:axId val="166661592"/>
+        <c:axId val="166659632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231974632"/>
+        <c:axId val="166661592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231969536"/>
+        <c:crossAx val="166659632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231969536"/>
+        <c:axId val="166659632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231974632"/>
+        <c:crossAx val="166661592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,261 +2000,262 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2684397.8699186901</v>
+        <v>506.98944591028999</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>584323.82359550497</v>
+        <v>1767.8008067226799</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>14360.1138545953</v>
+        <v>1939.96586699765</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1110376.8536259001</v>
+        <v>2387.2669039145899</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>72759744.165217295</v>
+        <v>4279.6652892561897</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2387.2669039145899</v>
+        <v>4843.8656250000004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>556110.53736654797</v>
+        <v>6614.3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4843.8656250000004</v>
+        <v>7208.3333333333303</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4279.6652892561897</v>
+        <v>7420.6785714285697</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>750538</v>
+        <v>9643</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1767.8008067226799</v>
+        <v>14360.1138545953</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>108625.821264689</v>
+        <v>50472.518072289102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>118866.838649155</v>
+        <v>108625.821264689</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>382508.186086956</v>
+        <v>118866.838649155</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1332061.3611111101</v>
+        <v>382508.186086956</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>6614.3</v>
+        <v>428885</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>999431.90327237698</v>
+        <v>556110.53736654797</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>935030.25531914795</v>
+        <v>584323.82359550497</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7420.6785714285697</v>
+        <v>598574.5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1939.96586699765</v>
+        <v>750538</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>506.98944591028999</v>
+        <v>806244.62162162096</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1243371.5</v>
+        <v>836837.84615384601</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>598574.5</v>
+        <v>935030.25531914795</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3269669.2102425802</v>
+        <v>999431.90327237698</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7208.3333333333303</v>
+        <v>1110376.8536259001</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>9643</v>
+        <v>1243371.5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2639485</v>
+        <v>1332061.3611111101</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>806244.62162162096</v>
+        <v>2639485</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>50472.518072289102</v>
+        <v>2684397.8699186901</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>428885</v>
+        <v>3269669.2102425802</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>836837.84615384601</v>
+        <v>72759744.165217295</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1006513965</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B32">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2270,7 +2265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
